--- a/PCB_New_U540/new_u450_rohm_bom.xlsx
+++ b/PCB_New_U540/new_u450_rohm_bom.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Duy\PCB_New_U540\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E1E553A-A87B-4DFA-8434-80B881515D55}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B7EBDBC-94F6-4168-84A1-31D8B0FB8401}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,12 +37,6 @@
   </si>
   <si>
     <t>10uF</t>
-  </si>
-  <si>
-    <t>C88711</t>
-  </si>
-  <si>
-    <t>BSH103,235</t>
   </si>
   <si>
     <t>0.1uF</t>
@@ -169,12 +163,18 @@
   <si>
     <t>SSOP-20_4</t>
   </si>
+  <si>
+    <t>C8547</t>
+  </si>
+  <si>
+    <t>CJ2301 S1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -230,12 +230,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF222222"/>
-      <name val="PingFangSC, PingFangSC-Semibold"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -274,7 +268,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -314,10 +308,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -705,7 +696,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
@@ -729,50 +720,50 @@
         <v>2</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:5" ht="15.75">
       <c r="A2" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C2" s="6">
         <v>1206</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>12</v>
+      <c r="D2" s="11" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C3" s="6">
         <v>1206</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>14</v>
+      <c r="D3" s="11" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C4" s="6">
         <v>1206</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>17</v>
+      <c r="D4" s="11" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75">
@@ -780,97 +771,97 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" s="6">
         <v>1206</v>
       </c>
-      <c r="D5" s="14" t="s">
-        <v>19</v>
+      <c r="D5" s="13" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75">
       <c r="A6" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C6" s="6">
         <v>1206</v>
       </c>
-      <c r="D6" s="13" t="s">
-        <v>22</v>
+      <c r="D6" s="11" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75">
       <c r="A7" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7" s="6">
         <v>1206</v>
       </c>
-      <c r="D7" s="13" t="s">
-        <v>24</v>
+      <c r="D7" s="11" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75">
       <c r="A8" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C8" s="6">
         <v>1206</v>
       </c>
-      <c r="D8" s="13" t="s">
-        <v>28</v>
+      <c r="D8" s="11" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75">
       <c r="A9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="D9" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.75">
-      <c r="A10" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>4</v>
+      <c r="D10" s="11" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75">
       <c r="A11" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75">
